--- a/biology/Histoire de la zoologie et de la botanique/Adolphe_Boucard/Adolphe_Boucard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolphe_Boucard/Adolphe_Boucard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphe Boucard est un ornithologue français né en 1839 et mort le 15 mars 1905 à Hampstead.
 Il passe plus de 40 ans à chasser les oiseaux pour les étudier mais aussi pour faire le commerce de leurs plumes. Il récolte beaucoup en Amérique centrale et du Sud.
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Méthode à la portée de tous, pour se faire 2 000 à 5 000 francs de rente en s'instruisant et en s'amusant, ou Guide pour collecter, préparer et expédier des collections d'histoire naturelle (A. Boucard, Londres, 1871).
 Plusieurs Notes sur quelques trochilidés (Annales de la Société linnéenne de Lyon, Lyon, 1874, 1875).
